--- a/results/regression/500ix100g/Summary.xlsx
+++ b/results/regression/500ix100g/Summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basgalupp/Dropbox/Github/Clus-Hyper-Code/results/regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basgalupp/Dropbox/Github/Clus-Hyper-Code/results/regression/500ix100g/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1320" windowWidth="24960" windowHeight="13460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="520" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -106,8 +106,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -191,17 +192,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,6 +221,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -521,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,35 +544,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -602,312 +607,336 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="19">
         <v>616.03595625000003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="19">
         <v>6744065.7472687503</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <v>1530.9477937500001</v>
       </c>
-      <c r="E4" s="6">
-        <v>367.38182499999903</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2740869.254675</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1079.3530625000001</v>
-      </c>
-      <c r="H4" s="11">
-        <v>710.24770000000001</v>
-      </c>
-      <c r="I4" s="11">
-        <v>8812860.6211374998</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1689.58894375</v>
+      <c r="E4" s="16">
+        <v>437.43741874999898</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3128384.2617624998</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1171.42661875</v>
+      </c>
+      <c r="H4" s="18">
+        <v>740.10748750000005</v>
+      </c>
+      <c r="I4" s="18">
+        <v>9072957.3977875002</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1782.1042</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="19">
         <v>664.726543749999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="19">
         <v>2616607.8857312398</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <v>1335.6286875000001</v>
       </c>
-      <c r="E5" s="6">
-        <v>384.23402499999997</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1275424.09139999</v>
-      </c>
-      <c r="G5" s="5">
-        <v>798.935599999999</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1597.81111249999</v>
-      </c>
-      <c r="I5" s="11">
-        <v>11577824.1496937</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3252.7846</v>
+      <c r="E5" s="16">
+        <v>548.901475</v>
+      </c>
+      <c r="F5" s="17">
+        <v>3284346.48839375</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1298.5323187500001</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1842.8606124999901</v>
+      </c>
+      <c r="I5" s="18">
+        <v>19951648.3424187</v>
+      </c>
+      <c r="J5" s="18">
+        <v>4271.7191999999995</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="19">
         <v>21.100187499999901</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="19">
         <v>1236.3453750000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>29.094687499999999</v>
       </c>
-      <c r="E6" s="6">
-        <v>20.197437499999999</v>
-      </c>
-      <c r="F6" s="5">
-        <v>921.92642499999999</v>
-      </c>
-      <c r="G6" s="5">
-        <v>26.81195</v>
-      </c>
-      <c r="H6" s="11">
-        <v>106.113599999999</v>
-      </c>
-      <c r="I6" s="11">
-        <v>14999.432687500001</v>
-      </c>
-      <c r="J6" s="11">
-        <v>111.77894999999999</v>
+      <c r="E6" s="16">
+        <v>21.100187499999901</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1236.3453750000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>29.094687499999999</v>
+      </c>
+      <c r="H6" s="18">
+        <v>106.9835875</v>
+      </c>
+      <c r="I6" s="18">
+        <v>15319.6006124999</v>
+      </c>
+      <c r="J6" s="18">
+        <v>113.87542500000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="19">
         <v>47.051162499999997</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>5050.3780624999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>54.2820999999999</v>
       </c>
-      <c r="E7" s="6">
-        <v>24.247624999999999</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1113.2596624999901</v>
-      </c>
-      <c r="G7" s="5">
-        <v>29.6067</v>
-      </c>
-      <c r="H7" s="11">
-        <v>110.00916249999899</v>
-      </c>
-      <c r="I7" s="11">
-        <v>15471.506762499999</v>
-      </c>
-      <c r="J7" s="11">
-        <v>114.43806249999901</v>
+      <c r="E7" s="16">
+        <v>21.09225</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1236.185125</v>
+      </c>
+      <c r="G7" s="17">
+        <v>29.09225</v>
+      </c>
+      <c r="H7" s="18">
+        <v>106.9351875</v>
+      </c>
+      <c r="I7" s="18">
+        <v>15308.4438625</v>
+      </c>
+      <c r="J7" s="18">
+        <v>113.834575</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="19">
         <v>39.430887499999997</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="19">
         <v>3042.48541875</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
         <v>48.962456250000002</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="E8" s="16">
+        <v>151.66005000000001</v>
+      </c>
+      <c r="F8" s="17">
+        <v>42785.978612500003</v>
+      </c>
+      <c r="G8" s="17">
+        <v>200.37367499999999</v>
+      </c>
+      <c r="H8" s="18">
+        <v>284.62091874999999</v>
+      </c>
+      <c r="I8" s="18">
+        <v>143539.1597125</v>
+      </c>
+      <c r="J8" s="18">
+        <v>338.87474999999898</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="19">
         <v>42.925957142857101</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="19">
         <v>4237.41319999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="19">
         <v>52.082707142857103</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="E9" s="16">
+        <v>208.48348125000001</v>
+      </c>
+      <c r="F9" s="17">
+        <v>72780.485612499993</v>
+      </c>
+      <c r="G9" s="17">
+        <v>265.45953750000001</v>
+      </c>
+      <c r="H9" s="18">
+        <v>307.15812499999998</v>
+      </c>
+      <c r="I9" s="18">
+        <v>157608.976568749</v>
+      </c>
+      <c r="J9" s="18">
+        <v>371.91564374999899</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="19">
         <v>0.81943571428571405</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="19">
         <v>1.32747142857142</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="19">
         <v>1.1198785714285699</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.80096428571428502</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.19293571428571</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1.05763571428571</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.97367857142857095</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1.60624285714285</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1.2543142857142799</v>
+      <c r="E10" s="16">
+        <v>0.83913571428571399</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.2368071428571401</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1.0724</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.91595714285714303</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1.51200714285714</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1.2112714285714199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
+      <c r="B11" s="18">
         <f>AVERAGE(B4:B10)</f>
         <v>204.58430433673448</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="18">
         <f>AVERAGE(C4:C10)</f>
         <v>1339177.3689325242</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="18">
         <f>AVERAGE(D4:D10)</f>
         <v>436.01690153061224</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -915,158 +944,182 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6">
-        <v>116.93969999999899</v>
-      </c>
-      <c r="F18" s="5">
-        <v>76890.851037500004</v>
-      </c>
-      <c r="G18" s="5">
-        <v>235.61802499999999</v>
-      </c>
-      <c r="H18" s="11">
-        <v>48.4027999999999</v>
-      </c>
-      <c r="I18" s="11">
-        <v>9819.8498999999993</v>
-      </c>
-      <c r="J18" s="11">
-        <v>99.095199999999906</v>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="16">
+        <v>226.84936249999899</v>
+      </c>
+      <c r="F18" s="17">
+        <v>228688.40170624899</v>
+      </c>
+      <c r="G18" s="17">
+        <v>406.29015625</v>
+      </c>
+      <c r="H18" s="18">
+        <v>47.402099999999997</v>
+      </c>
+      <c r="I18" s="18">
+        <v>10279.2894</v>
+      </c>
+      <c r="J18" s="18">
+        <v>101.38679999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6">
-        <v>212.83745625</v>
-      </c>
-      <c r="F19" s="5">
-        <v>269086.01754375</v>
-      </c>
-      <c r="G19" s="5">
-        <v>411.64030000000002</v>
-      </c>
-      <c r="H19" s="11">
-        <v>265.04590000000002</v>
-      </c>
-      <c r="I19" s="11">
-        <v>557008.48010000004</v>
-      </c>
-      <c r="J19" s="11">
-        <v>746.33</v>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="16">
+        <v>457.95075624999998</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1405123.8028875</v>
+      </c>
+      <c r="G19" s="17">
+        <v>909.81084375</v>
+      </c>
+      <c r="H19" s="18">
+        <v>241.905699999999</v>
+      </c>
+      <c r="I19" s="18">
+        <v>309002.12650000001</v>
+      </c>
+      <c r="J19" s="18">
+        <v>555.87959999999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
-        <v>0.25674999999999998</v>
-      </c>
-      <c r="F20" s="10">
-        <v>2.4266874999999999</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1.2216</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.39950000000000002</v>
-      </c>
-      <c r="I20" s="5">
-        <v>2.2479</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1.4993000000000001</v>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19">
+        <v>0.39899999999999902</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.67994999999999906</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.66941249999999997</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.49779999999999902</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1.06</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6">
-        <v>0.63259999999999905</v>
-      </c>
-      <c r="F21" s="5">
-        <v>6.8475374999999996</v>
-      </c>
-      <c r="G21" s="5">
-        <v>2.1141125000000001</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1.0053000000000001</v>
-      </c>
-      <c r="I21" s="11">
-        <v>11.7155</v>
-      </c>
-      <c r="J21" s="11">
-        <v>3.4227999999999899</v>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="16">
+        <v>0.4090375</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.68792500000000001</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.5272</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1.1697</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1.0814999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="16">
+        <v>65.144337500000006</v>
+      </c>
+      <c r="F22" s="17">
+        <v>9968.7334874999997</v>
+      </c>
+      <c r="G22" s="17">
+        <v>98.648818750000004</v>
+      </c>
+      <c r="H22" s="18">
+        <v>21.679199999999899</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1373.2344000000001</v>
+      </c>
+      <c r="J22" s="18">
+        <v>37.057200000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="16">
+        <v>68.307218750000004</v>
+      </c>
+      <c r="F23" s="17">
+        <v>11286.595531249999</v>
+      </c>
+      <c r="G23" s="17">
+        <v>105.046856249999</v>
+      </c>
+      <c r="H23" s="18">
+        <v>25.860799999999902</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1917.8054999999899</v>
+      </c>
+      <c r="J23" s="18">
+        <v>43.7927999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6">
-        <v>0.46364285714285702</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.41789285714285701</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.62954285714285696</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.4778</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0.406799999999999</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0.63780000000000003</v>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="16">
+        <v>0.92976428571428504</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1.59393571428571</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1.2276571428571399</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1.0547</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1.8644999999999901</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1.3654999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1094,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="B17:D19 D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,21 +1157,21 @@
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1153,76 +1206,76 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -1257,56 +1310,56 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
